--- a/tests/plots/smc_summary_tables.xlsx
+++ b/tests/plots/smc_summary_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Kong\Dropbox (GaTech)\Research - Prof. Monteiro\software\nc_opt\tests\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8930EC-63F5-4A16-8916-C281944379BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6A9F6-353A-4CFF-89FC-44B3AC511949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,11 +418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -468,10 +473,10 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>169</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>201</v>
       </c>
     </row>
@@ -503,18 +508,18 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>11443</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>2001</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O5">
+      <c r="O5" s="1">
         <v>839400</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>20001</v>
       </c>
     </row>
@@ -525,25 +530,25 @@
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1088.5999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>1206.0999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>1469.1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>1599.4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1393</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>9.7520000000000007</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>61.872999999999998</v>
       </c>
     </row>
@@ -554,25 +559,25 @@
       <c r="D7">
         <v>200</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1088.5999999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>54.652999999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1147.4000000000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>7.4874999999999998</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1209.5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>9.7520000000000007</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>10.56</v>
       </c>
     </row>
@@ -583,25 +588,25 @@
       <c r="D8">
         <v>400</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1088.5999999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>7.6494999999999997</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>367.86</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>7.4789000000000003</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>895.86</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>9.7520000000000007</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>10.425000000000001</v>
       </c>
     </row>
@@ -612,25 +617,25 @@
       <c r="D9">
         <v>800</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1081.8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>7.6494999999999997</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>61.677999999999997</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>7.4789000000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>488.32</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>9.7520000000000007</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>10.425000000000001</v>
       </c>
     </row>
@@ -641,25 +646,25 @@
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>1276.4000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>475.12</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1554.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>1594.3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>1589.2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>11.27</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>13.971</v>
       </c>
     </row>
@@ -670,25 +675,25 @@
       <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1274.4000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>142.56</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1445.7</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1592.5</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>1582.2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>11.27</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>8.2943999999999996</v>
       </c>
     </row>
@@ -699,25 +704,25 @@
       <c r="D12">
         <v>400</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1270.3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>71.626999999999995</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1153.5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>1584.5</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1568</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>11.27</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>8.2943999999999996</v>
       </c>
     </row>
@@ -728,25 +733,25 @@
       <c r="D13">
         <v>800</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>1262.2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>19.481999999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>668.86</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>1554.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>1540</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>11.27</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>8.2943999999999996</v>
       </c>
     </row>
@@ -757,25 +762,25 @@
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>1592.7</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>1595.4</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1594.7</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>1595.8</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>1595.8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>11.837</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>61.503</v>
       </c>
     </row>
@@ -786,25 +791,25 @@
       <c r="D15">
         <v>200</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>1589.2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>1467.5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1591.4</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>1595.8</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>1595.8</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>11.702999999999999</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>11.161</v>
       </c>
     </row>
@@ -815,25 +820,25 @@
       <c r="D16">
         <v>400</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>1582.3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>886.83</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1579.9</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>1595.7</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>1595.7</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>11.702999999999999</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>9.4526000000000003</v>
       </c>
     </row>
@@ -844,25 +849,25 @@
       <c r="D17">
         <v>800</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1568.8</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>822.74</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1544.4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>1595.6</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>1595.5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>11.702999999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <v>9.4526000000000003</v>
       </c>
     </row>
@@ -951,25 +956,25 @@
       <c r="D24">
         <v>100</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>106.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>324.92</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>326.81</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>329.95</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>319.42</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>80.680999999999997</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>201.05</v>
       </c>
     </row>
@@ -980,25 +985,25 @@
       <c r="D25">
         <v>200</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>106.67</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>307.67</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>321.13</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>329.95</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>308.12</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>80.680999999999997</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <v>166.05</v>
       </c>
     </row>
@@ -1009,25 +1014,25 @@
       <c r="D26">
         <v>400</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>106.67</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>197.68</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>301.13</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>251.92</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>284.61</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>80.680999999999997</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <v>166.05</v>
       </c>
     </row>
@@ -1038,25 +1043,25 @@
       <c r="D27">
         <v>800</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>104.88</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>81.906000000000006</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>231.52</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>97.432000000000002</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>244.6</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>80.680999999999997</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <v>166.05</v>
       </c>
     </row>
@@ -1067,25 +1072,25 @@
       <c r="D28">
         <v>100</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>316.79000000000002</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>330.08</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>329.87</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>329.93</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>329.99</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>85.781000000000006</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <v>259.39999999999998</v>
       </c>
     </row>
@@ -1096,25 +1101,25 @@
       <c r="D29">
         <v>200</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>301.5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>329.29</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>329.29</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>329.93</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>329.8</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>85.781000000000006</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <v>192.08</v>
       </c>
     </row>
@@ -1125,25 +1130,25 @@
       <c r="D30">
         <v>400</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>275.51</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>305</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>326.85000000000002</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>329.88</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>329.36</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>85.781000000000006</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <v>188.54</v>
       </c>
     </row>
@@ -1154,25 +1159,25 @@
       <c r="D31">
         <v>800</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>230.7</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>200.08</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>317.73</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>329.69</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>328.46</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>85.781000000000006</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <v>188.54</v>
       </c>
     </row>
@@ -1183,25 +1188,25 @@
       <c r="D32">
         <v>100</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>330.01</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>330.2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>330.18</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>330.17</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>330.2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>87.218000000000004</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <v>261.48</v>
       </c>
     </row>
@@ -1212,25 +1217,25 @@
       <c r="D33">
         <v>200</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>329.78</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>330.19</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <v>330.12</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>330.17</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="2">
         <v>330.2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <v>87.218000000000004</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <v>195.11</v>
       </c>
     </row>
@@ -1241,25 +1246,25 @@
       <c r="D34">
         <v>400</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>329.36</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>329.44</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>329.87</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>330.17</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="2">
         <v>330.19</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="2">
         <v>87.218000000000004</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <v>173.68</v>
       </c>
     </row>
@@ -1270,25 +1275,25 @@
       <c r="D35">
         <v>800</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>328.48</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>214.77</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>328.88</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>330.17</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="2">
         <v>330.18</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <v>87.218000000000004</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <v>173.68</v>
       </c>
     </row>
@@ -1377,25 +1382,25 @@
       <c r="D42">
         <v>100</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>433.49</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>547.42999999999995</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>554.13</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>566.6</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="2">
         <v>532.25</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="2">
         <v>33.871000000000002</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="2">
         <v>147.88999999999999</v>
       </c>
     </row>
@@ -1406,25 +1411,25 @@
       <c r="D43">
         <v>200</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>433.49</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>332.51</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <v>521.45000000000005</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <v>566.6</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="2">
         <v>498.02</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="2">
         <v>33.871000000000002</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="2">
         <v>42.262999999999998</v>
       </c>
     </row>
@@ -1435,25 +1440,25 @@
       <c r="D44">
         <v>400</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>433.49</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>36.18</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>417.53</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="2">
         <v>55.752000000000002</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="2">
         <v>429.22</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="2">
         <v>33.871000000000002</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="2">
         <v>42.262999999999998</v>
       </c>
     </row>
@@ -1464,25 +1469,25 @@
       <c r="D45">
         <v>800</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>433.49</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>36.18</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>169.97</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="2">
         <v>55.752000000000002</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="2">
         <v>322.88</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="2">
         <v>33.871000000000002</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="2">
         <v>42.262999999999998</v>
       </c>
     </row>
@@ -1493,25 +1498,25 @@
       <c r="D46">
         <v>100</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>520.41</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>565.66999999999996</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>565.16999999999996</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>566</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="2">
         <v>565.83000000000004</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="2">
         <v>37.517000000000003</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="2">
         <v>79.727000000000004</v>
       </c>
     </row>
@@ -1522,25 +1527,25 @@
       <c r="D47">
         <v>200</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>482.22</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>542.91</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>561.77</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>565.9</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="2">
         <v>565.21</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="2">
         <v>37.517000000000003</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="2">
         <v>42.518999999999998</v>
       </c>
     </row>
@@ -1551,25 +1556,25 @@
       <c r="D48">
         <v>400</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>410.61</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>86.477000000000004</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>549.91999999999996</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>565.66999999999996</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>563.83000000000004</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="2">
         <v>37.517000000000003</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="2">
         <v>42.518999999999998</v>
       </c>
     </row>
@@ -1580,25 +1585,25 @@
       <c r="D49">
         <v>800</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>295.41000000000003</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>75.376999999999995</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>510.68</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>564.85</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>561.11</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="2">
         <v>37.517000000000003</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="2">
         <v>42.518999999999998</v>
       </c>
     </row>
@@ -1609,25 +1614,25 @@
       <c r="D50">
         <v>100</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>565.66999999999996</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>566.39</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>566.22</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>566.35</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>566.4</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="2">
         <v>38.469000000000001</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="2">
         <v>81.209999999999994</v>
       </c>
     </row>
@@ -1638,25 +1643,25 @@
       <c r="D51">
         <v>200</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>564.92999999999995</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>565.08000000000004</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>565.76</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>566.35</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>566.39</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="2">
         <v>38.469000000000001</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="2">
         <v>41.963999999999999</v>
       </c>
     </row>
@@ -1667,25 +1672,25 @@
       <c r="D52">
         <v>400</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>563.32000000000005</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>380.49</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>563.97</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>566.35</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>566.37</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="2">
         <v>38.469000000000001</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="2">
         <v>41.963999999999999</v>
       </c>
     </row>
@@ -1696,25 +1701,25 @@
       <c r="D53">
         <v>800</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>560.17999999999995</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>129.43</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>558.02</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="2">
         <v>566.33000000000004</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="2">
         <v>566.32000000000005</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="2">
         <v>38.469000000000001</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="2">
         <v>41.963999999999999</v>
       </c>
     </row>
@@ -1800,25 +1805,25 @@
       <c r="D60">
         <v>100</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>392.35</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>471.2</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="2">
         <v>489.31</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="2">
         <v>505.95</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="2">
         <v>468.45</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="2">
         <v>35.859000000000002</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="2">
         <v>45.268000000000001</v>
       </c>
     </row>
@@ -1829,25 +1834,25 @@
       <c r="D61">
         <v>200</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>392.35</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>194.04</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <v>450.63</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <v>57.127000000000002</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="2">
         <v>428.66</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="2">
         <v>35.859000000000002</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="2">
         <v>45.268000000000001</v>
       </c>
     </row>
@@ -1858,25 +1863,25 @@
       <c r="D62">
         <v>400</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>392.35</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>37.024000000000001</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <v>320.58</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>57.127000000000002</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="2">
         <v>361.21</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="2">
         <v>35.859000000000002</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="2">
         <v>45.268000000000001</v>
       </c>
     </row>
@@ -1887,25 +1892,25 @@
       <c r="D63">
         <v>800</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>392.35</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>37.024000000000001</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <v>79.376000000000005</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>57.127000000000002</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="2">
         <v>253.99</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="2">
         <v>35.859000000000002</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="2">
         <v>45.268000000000001</v>
       </c>
     </row>
@@ -1916,25 +1921,25 @@
       <c r="D64">
         <v>100</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>461.01</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>504.55</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="2">
         <v>504.24</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="2">
         <v>505.49</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="2">
         <v>505.28</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="2">
         <v>39.755000000000003</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="2">
         <v>74.86</v>
       </c>
     </row>
@@ -1945,25 +1950,25 @@
       <c r="D65">
         <v>200</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>416.58</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>436.18</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <v>500.15</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="2">
         <v>505.44</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="2">
         <v>504.54</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="2">
         <v>39.755000000000003</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="2">
         <v>45.43</v>
       </c>
     </row>
@@ -1974,25 +1979,25 @@
       <c r="D66">
         <v>400</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>340.24</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>81.831999999999994</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>483.4</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>505.15</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="2">
         <v>503.06</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="2">
         <v>39.755000000000003</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="2">
         <v>45.43</v>
       </c>
     </row>
@@ -2003,25 +2008,25 @@
       <c r="D67">
         <v>800</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>229.28</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>81.831999999999994</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="2">
         <v>433.9</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="2">
         <v>503.99</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="2">
         <v>500.07</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="2">
         <v>39.755000000000003</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="2">
         <v>45.43</v>
       </c>
     </row>
@@ -2032,25 +2037,25 @@
       <c r="D68">
         <v>100</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>505.26</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>505.91</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="2">
         <v>505.76</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="2">
         <v>505.87</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="2">
         <v>505.92</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="2">
         <v>37.802999999999997</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="2">
         <v>76.260999999999996</v>
       </c>
     </row>
@@ -2061,25 +2066,25 @@
       <c r="D69">
         <v>200</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>504.54</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>504.73</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="2">
         <v>505.35</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="2">
         <v>505.87</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="2">
         <v>505.91</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="2">
         <v>37.802999999999997</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="2">
         <v>44.692999999999998</v>
       </c>
     </row>
@@ -2090,25 +2095,25 @@
       <c r="D70">
         <v>400</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>503.11</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>255.11</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="2">
         <v>503.64</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="2">
         <v>505.86</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="2">
         <v>505.89</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="2">
         <v>37.802999999999997</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="2">
         <v>44.692999999999998</v>
       </c>
     </row>
@@ -2119,25 +2124,25 @@
       <c r="D71">
         <v>800</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>500.3</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>247.85</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="2">
         <v>498.34</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="2">
         <v>505.85</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="2">
         <v>505.85</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="2">
         <v>37.802999999999997</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="2">
         <v>44.692999999999998</v>
       </c>
     </row>
